--- a/Rabbit/Convection_Related_Plots/Rabbit_Vitreous_Humor_Results_Middle_Vitreous_Fast.xlsx
+++ b/Rabbit/Convection_Related_Plots/Rabbit_Vitreous_Humor_Results_Middle_Vitreous_Fast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Dose in half symmetry/Fast convection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Rabbit/Convection_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B99F9E33-29DC-4191-A9EE-579E888C3022}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93127C15-0C36-47C1-B0EC-A047DC487492}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t>Experimental data</t>
   </si>
@@ -92,6 +92,12 @@
   <si>
     <t>half-life</t>
   </si>
+  <si>
+    <t>stdv</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,12 +128,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -158,7 +158,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -166,7 +166,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -331,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -484,7 +483,7 @@
   <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +503,9 @@
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
@@ -528,6 +530,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -560,6 +565,9 @@
       <c r="B5">
         <v>414.93257202146998</v>
       </c>
+      <c r="C5">
+        <v>97.58</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -592,6 +600,9 @@
       <c r="B6">
         <v>328.74104593189298</v>
       </c>
+      <c r="C6">
+        <v>53.8</v>
+      </c>
       <c r="D6">
         <v>0.5</v>
       </c>
@@ -624,6 +635,9 @@
       <c r="B7">
         <v>129.52677443553199</v>
       </c>
+      <c r="C7">
+        <v>29.02</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -656,6 +670,9 @@
       <c r="B8">
         <v>48.461098954332002</v>
       </c>
+      <c r="C8">
+        <v>6.36</v>
+      </c>
       <c r="D8">
         <v>1.5</v>
       </c>
@@ -688,6 +705,9 @@
       <c r="B9">
         <v>4.6017322765137996</v>
       </c>
+      <c r="C9">
+        <v>0.52</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -770,6 +790,9 @@
         <v>9</v>
       </c>
       <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
       <c r="D12">
         <v>3.5</v>
       </c>
@@ -802,6 +825,9 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
       <c r="D13">
         <v>4</v>
       </c>
@@ -834,6 +860,9 @@
       <c r="B14">
         <v>517.94746792312196</v>
       </c>
+      <c r="C14">
+        <v>160.13</v>
+      </c>
       <c r="D14">
         <v>4.5</v>
       </c>
@@ -866,6 +895,9 @@
       <c r="B15">
         <v>89.615050194660597</v>
       </c>
+      <c r="C15">
+        <v>18.309999999999999</v>
+      </c>
       <c r="D15">
         <v>5</v>
       </c>
@@ -898,6 +930,9 @@
       <c r="B16">
         <v>57.796928841533195</v>
       </c>
+      <c r="C16">
+        <v>16.66</v>
+      </c>
       <c r="D16">
         <v>5.5</v>
       </c>
@@ -930,6 +965,9 @@
       <c r="B17">
         <v>26.826957952797198</v>
       </c>
+      <c r="C17">
+        <v>7.31</v>
+      </c>
       <c r="D17">
         <v>6</v>
       </c>
@@ -962,6 +1000,9 @@
       <c r="B18">
         <v>5.9948425031894104</v>
       </c>
+      <c r="C18">
+        <v>1.82</v>
+      </c>
       <c r="D18">
         <v>6.5</v>
       </c>
@@ -1070,6 +1111,9 @@
         <v>10</v>
       </c>
       <c r="B22" s="6"/>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
       <c r="D22">
         <v>8.5</v>
       </c>
@@ -1102,6 +1146,9 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
       <c r="D23">
         <v>9</v>
       </c>
@@ -1134,6 +1181,9 @@
       <c r="B24">
         <v>59.2</v>
       </c>
+      <c r="C24">
+        <v>12.24</v>
+      </c>
       <c r="D24">
         <v>9.5</v>
       </c>
@@ -1166,6 +1216,9 @@
       <c r="B25">
         <v>4.7469999999999999</v>
       </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
       <c r="D25">
         <v>10</v>
       </c>
@@ -1198,6 +1251,9 @@
       <c r="B26">
         <v>3.5</v>
       </c>
+      <c r="C26">
+        <v>0.84</v>
+      </c>
       <c r="D26">
         <v>10.5</v>
       </c>
@@ -1280,6 +1336,9 @@
         <v>11</v>
       </c>
       <c r="B29" s="6"/>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
       <c r="D29">
         <v>12</v>
       </c>
@@ -1312,6 +1371,9 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
       <c r="D30">
         <v>12.5</v>
       </c>
@@ -1344,6 +1406,9 @@
       <c r="B31">
         <v>156</v>
       </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
       <c r="D31">
         <v>13</v>
       </c>
@@ -1376,6 +1441,9 @@
       <c r="B32">
         <v>87.3333333333333</v>
       </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
       <c r="D32">
         <v>13.5</v>
       </c>
@@ -1408,6 +1476,9 @@
       <c r="B33">
         <v>30</v>
       </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
       <c r="D33">
         <v>14</v>
       </c>
@@ -1440,6 +1511,9 @@
       <c r="B34">
         <v>19.1404115825896</v>
       </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
       <c r="D34">
         <v>14.5</v>
       </c>
@@ -1472,6 +1546,9 @@
       <c r="B35">
         <v>2.4221453287196901</v>
       </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
       <c r="D35">
         <v>15</v>
       </c>
@@ -1554,6 +1631,9 @@
         <v>7</v>
       </c>
       <c r="B38" s="6"/>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
       <c r="D38">
         <v>16.5</v>
       </c>
@@ -1586,6 +1666,9 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
       <c r="D39">
         <v>17</v>
       </c>
@@ -1618,6 +1701,9 @@
       <c r="B40">
         <v>1471.7436403597401</v>
       </c>
+      <c r="C40">
+        <v>99.8</v>
+      </c>
       <c r="D40">
         <v>17.5</v>
       </c>
@@ -1650,6 +1736,9 @@
       <c r="B41">
         <v>679.46616012253696</v>
       </c>
+      <c r="C41">
+        <v>41.36</v>
+      </c>
       <c r="D41">
         <v>18</v>
       </c>
@@ -1682,6 +1771,9 @@
       <c r="B42">
         <v>334.56116246598299</v>
       </c>
+      <c r="C42">
+        <v>37.07</v>
+      </c>
       <c r="D42">
         <v>18.5</v>
       </c>
@@ -1714,6 +1806,9 @@
       <c r="B43">
         <v>127.31955290816499</v>
       </c>
+      <c r="C43">
+        <v>18.670000000000002</v>
+      </c>
       <c r="D43">
         <v>19</v>
       </c>
@@ -1746,6 +1841,9 @@
       <c r="B44">
         <v>32.3958597771421</v>
       </c>
+      <c r="C44">
+        <v>5.58</v>
+      </c>
       <c r="D44">
         <v>19.5</v>
       </c>
@@ -2869,16 +2967,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2888,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECEB316-5016-42DF-A3DE-AA9244DE544A}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C6" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2985,31 +3083,24 @@
       <c r="B5">
         <v>414.93257202146998</v>
       </c>
-      <c r="C5">
-        <f>LN(2)/0.16</f>
-        <v>4.3321698784996583</v>
-      </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
         <v>856.53182823993734</v>
       </c>
-      <c r="G5" s="8"/>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
         <v>856.53183520490813</v>
       </c>
-      <c r="K5" s="8"/>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
         <v>856.53182823736415</v>
       </c>
-      <c r="O5" s="8"/>
       <c r="P5">
         <v>0</v>
       </c>
@@ -3024,31 +3115,24 @@
       <c r="B6">
         <v>328.74104593189298</v>
       </c>
-      <c r="C6">
-        <f>_xlfn.FORECAST.LINEAR(207,A6:A7,B6:B7)</f>
-        <v>5.969867380562305</v>
-      </c>
       <c r="D6">
         <v>9.9999999999999895E-2</v>
       </c>
       <c r="E6">
         <v>853.17708470603384</v>
       </c>
-      <c r="G6" s="8"/>
       <c r="H6">
         <v>9.9999999999999895E-2</v>
       </c>
       <c r="I6">
         <v>811.19645387112928</v>
       </c>
-      <c r="K6" s="8"/>
       <c r="L6">
         <v>9.9999999999999895E-2</v>
       </c>
       <c r="M6">
         <v>856.4961097133662</v>
       </c>
-      <c r="O6" s="8"/>
       <c r="P6">
         <v>9.9999999999999895E-2</v>
       </c>
@@ -3069,21 +3153,18 @@
       <c r="E7">
         <v>834.20806384645482</v>
       </c>
-      <c r="G7" s="8"/>
       <c r="H7">
         <v>0.19999999999999901</v>
       </c>
       <c r="I7">
         <v>689.06763789873833</v>
       </c>
-      <c r="K7" s="8"/>
       <c r="L7">
         <v>0.19999999999999901</v>
       </c>
       <c r="M7">
         <v>855.1703767357061</v>
       </c>
-      <c r="O7" s="8"/>
       <c r="P7">
         <v>0.19999999999999901</v>
       </c>
@@ -3104,21 +3185,18 @@
       <c r="E8">
         <v>802.20744309519637</v>
       </c>
-      <c r="G8" s="8"/>
       <c r="H8">
         <v>0.3</v>
       </c>
       <c r="I8">
         <v>564.66477335958041</v>
       </c>
-      <c r="K8" s="8"/>
       <c r="L8">
         <v>0.3</v>
       </c>
       <c r="M8">
         <v>850.57084519427872</v>
       </c>
-      <c r="O8" s="8"/>
       <c r="P8">
         <v>0.3</v>
       </c>
@@ -3139,21 +3217,18 @@
       <c r="E9">
         <v>763.334071749126</v>
       </c>
-      <c r="G9" s="8"/>
       <c r="H9">
         <v>0.39999999999999902</v>
       </c>
       <c r="I9">
         <v>457.70834822773003</v>
       </c>
-      <c r="K9" s="8"/>
       <c r="L9">
         <v>0.39999999999999902</v>
       </c>
       <c r="M9">
         <v>842.70900955180434</v>
       </c>
-      <c r="O9" s="8"/>
       <c r="P9">
         <v>0.39999999999999902</v>
       </c>
@@ -3168,21 +3243,18 @@
       <c r="E10">
         <v>721.32166411172307</v>
       </c>
-      <c r="G10" s="8"/>
       <c r="H10">
         <v>0.5</v>
       </c>
       <c r="I10">
         <v>369.38865539693063</v>
       </c>
-      <c r="K10" s="8"/>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10">
         <v>832.3782672876622</v>
       </c>
-      <c r="O10" s="8"/>
       <c r="P10">
         <v>0.5</v>
       </c>
@@ -3197,21 +3269,18 @@
       <c r="E11">
         <v>678.56210268183531</v>
       </c>
-      <c r="G11" s="8"/>
       <c r="H11">
         <v>0.6</v>
       </c>
       <c r="I11">
         <v>297.55343131916248</v>
       </c>
-      <c r="K11" s="8"/>
       <c r="L11">
         <v>0.6</v>
       </c>
       <c r="M11">
         <v>820.35613453322151</v>
       </c>
-      <c r="O11" s="8"/>
       <c r="P11">
         <v>0.6</v>
       </c>
@@ -3233,21 +3302,18 @@
       <c r="E12">
         <v>636.4770987701711</v>
       </c>
-      <c r="G12" s="8"/>
       <c r="H12">
         <v>0.7</v>
       </c>
       <c r="I12">
         <v>239.46994522954427</v>
       </c>
-      <c r="K12" s="8"/>
       <c r="L12">
         <v>0.7</v>
       </c>
       <c r="M12">
         <v>807.25371107585931</v>
       </c>
-      <c r="O12" s="8"/>
       <c r="P12">
         <v>0.7</v>
       </c>
@@ -3268,21 +3334,18 @@
       <c r="E13">
         <v>595.92397723184854</v>
       </c>
-      <c r="G13" s="8"/>
       <c r="H13">
         <v>0.79999999999999905</v>
       </c>
       <c r="I13">
         <v>192.63011281691169</v>
       </c>
-      <c r="K13" s="8"/>
       <c r="L13">
         <v>0.79999999999999905</v>
       </c>
       <c r="M13">
         <v>793.50569275411283</v>
       </c>
-      <c r="O13" s="8"/>
       <c r="P13">
         <v>0.79999999999999905</v>
       </c>
@@ -3297,31 +3360,24 @@
       <c r="B14">
         <v>434.44122987293599</v>
       </c>
-      <c r="C14">
-        <f>LN(2)/0.106</f>
-        <v>6.5391243449051446</v>
-      </c>
       <c r="D14">
         <v>0.89999999999999902</v>
       </c>
       <c r="E14">
         <v>557.24464187899605</v>
       </c>
-      <c r="G14" s="8"/>
       <c r="H14">
         <v>0.89999999999999902</v>
       </c>
       <c r="I14">
         <v>154.91096277254113</v>
       </c>
-      <c r="K14" s="8"/>
       <c r="L14">
         <v>0.89999999999999902</v>
       </c>
       <c r="M14">
         <v>779.3321523427494</v>
       </c>
-      <c r="O14" s="8"/>
       <c r="P14">
         <v>0.89999999999999902</v>
       </c>
@@ -3336,31 +3392,24 @@
       <c r="B15">
         <v>75.737391758950011</v>
       </c>
-      <c r="C15">
-        <f>_xlfn.FORECAST.LINEAR(217,A14:A15,B14:B15)</f>
-        <v>2.144900248662946</v>
-      </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
         <v>520.62988463757642</v>
       </c>
-      <c r="G15" s="8"/>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
         <v>124.43157836356664</v>
       </c>
-      <c r="K15" s="8"/>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
         <v>764.92983062128258</v>
       </c>
-      <c r="O15" s="8"/>
       <c r="P15">
         <v>1</v>
       </c>
@@ -3381,21 +3430,18 @@
       <c r="E16">
         <v>486.16196533140999</v>
       </c>
-      <c r="G16" s="8"/>
       <c r="H16">
         <v>1.1000000000000001</v>
       </c>
       <c r="I16">
         <v>99.807284850971314</v>
       </c>
-      <c r="K16" s="8"/>
       <c r="L16">
         <v>1.1000000000000001</v>
       </c>
       <c r="M16">
         <v>750.43851055068853</v>
       </c>
-      <c r="O16" s="8"/>
       <c r="P16">
         <v>1.1000000000000001</v>
       </c>
@@ -3416,21 +3462,18 @@
       <c r="E17">
         <v>453.83272921349192</v>
       </c>
-      <c r="G17" s="8"/>
       <c r="H17">
         <v>1.2</v>
       </c>
       <c r="I17">
         <v>80.078030578134289</v>
       </c>
-      <c r="K17" s="8"/>
       <c r="L17">
         <v>1.2</v>
       </c>
       <c r="M17">
         <v>735.9544051279355</v>
       </c>
-      <c r="O17" s="8"/>
       <c r="P17">
         <v>1.2</v>
       </c>
@@ -3451,21 +3494,18 @@
       <c r="E18">
         <v>423.57818870737111</v>
       </c>
-      <c r="G18" s="8"/>
       <c r="H18">
         <v>1.3</v>
       </c>
       <c r="I18">
         <v>64.237074616063325</v>
       </c>
-      <c r="K18" s="8"/>
       <c r="L18">
         <v>1.3</v>
       </c>
       <c r="M18">
         <v>721.54703926440823</v>
       </c>
-      <c r="O18" s="8"/>
       <c r="P18">
         <v>1.3</v>
       </c>
@@ -3480,21 +3520,18 @@
       <c r="E19">
         <v>395.30418509073206</v>
       </c>
-      <c r="G19" s="8"/>
       <c r="H19">
         <v>1.4</v>
       </c>
       <c r="I19">
         <v>51.5291575714554</v>
       </c>
-      <c r="K19" s="8"/>
       <c r="L19">
         <v>1.4</v>
       </c>
       <c r="M19">
         <v>707.28031004603872</v>
       </c>
-      <c r="O19" s="8"/>
       <c r="P19">
         <v>1.4</v>
       </c>
@@ -3509,21 +3546,18 @@
       <c r="E20">
         <v>368.82108380325684</v>
       </c>
-      <c r="G20" s="8"/>
       <c r="H20">
         <v>1.5</v>
       </c>
       <c r="I20">
         <v>41.317912872313208</v>
       </c>
-      <c r="K20" s="8"/>
       <c r="L20">
         <v>1.5</v>
       </c>
       <c r="M20">
         <v>693.15455119322417</v>
       </c>
-      <c r="O20" s="8"/>
       <c r="P20">
         <v>1.5</v>
       </c>
@@ -3538,21 +3572,18 @@
       <c r="E21">
         <v>344.10767431777867</v>
       </c>
-      <c r="G21" s="8"/>
       <c r="H21">
         <v>1.5999999999999901</v>
       </c>
       <c r="I21">
         <v>33.130630810867672</v>
       </c>
-      <c r="K21" s="8"/>
       <c r="L21">
         <v>1.5999999999999901</v>
       </c>
       <c r="M21">
         <v>679.21356095534543</v>
       </c>
-      <c r="O21" s="8"/>
       <c r="P21">
         <v>1.5999999999999901</v>
       </c>
@@ -3574,21 +3605,18 @@
       <c r="E22">
         <v>320.98437081170971</v>
       </c>
-      <c r="G22" s="8"/>
       <c r="H22">
         <v>1.7</v>
       </c>
       <c r="I22">
         <v>26.566827218596071</v>
       </c>
-      <c r="K22" s="8"/>
       <c r="L22">
         <v>1.7</v>
       </c>
       <c r="M22">
         <v>665.44625992888461</v>
       </c>
-      <c r="O22" s="8"/>
       <c r="P22">
         <v>1.7</v>
       </c>
@@ -3609,21 +3637,18 @@
       <c r="E23">
         <v>299.48956318415742</v>
       </c>
-      <c r="G23" s="8"/>
       <c r="H23">
         <v>1.7999999999999901</v>
       </c>
       <c r="I23">
         <v>21.3048888322312</v>
       </c>
-      <c r="K23" s="8"/>
       <c r="L23">
         <v>1.7999999999999901</v>
       </c>
       <c r="M23">
         <v>651.8970721987514</v>
       </c>
-      <c r="O23" s="8"/>
       <c r="P23">
         <v>1.7999999999999901</v>
       </c>
@@ -3638,31 +3663,24 @@
       <c r="B24">
         <v>63.479219593504595</v>
       </c>
-      <c r="C24">
-        <f>LN(2)/0.115</f>
-        <v>6.027366787477785</v>
-      </c>
       <c r="D24">
         <v>1.9</v>
       </c>
       <c r="E24">
         <v>279.35921884007945</v>
       </c>
-      <c r="G24" s="8"/>
       <c r="H24">
         <v>1.9</v>
       </c>
       <c r="I24">
         <v>17.086741200638972</v>
       </c>
-      <c r="K24" s="8"/>
       <c r="L24">
         <v>1.9</v>
       </c>
       <c r="M24">
         <v>638.55205113848376</v>
       </c>
-      <c r="O24" s="8"/>
       <c r="P24">
         <v>1.9</v>
       </c>
@@ -3677,31 +3695,24 @@
       <c r="B25">
         <v>5.1348329074375396</v>
       </c>
-      <c r="C25">
-        <f>_xlfn.FORECAST.LINEAR(31.5,A24:A25,B24:B25)</f>
-        <v>9.5094180913814697</v>
-      </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25">
         <v>260.64310502918653</v>
       </c>
-      <c r="G25" s="8"/>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
         <v>13.705374557316983</v>
       </c>
-      <c r="K25" s="8"/>
       <c r="L25">
         <v>2</v>
       </c>
       <c r="M25">
         <v>625.43870588190691</v>
       </c>
-      <c r="O25" s="8"/>
       <c r="P25">
         <v>2</v>
       </c>
@@ -3722,21 +3733,18 @@
       <c r="E26">
         <v>243.13397796326254</v>
       </c>
-      <c r="G26" s="8"/>
       <c r="H26">
         <v>2.1</v>
       </c>
       <c r="I26">
         <v>10.994776182197969</v>
       </c>
-      <c r="K26" s="8"/>
       <c r="L26">
         <v>2.1</v>
       </c>
       <c r="M26">
         <v>612.5478776542235</v>
       </c>
-      <c r="O26" s="8"/>
       <c r="P26">
         <v>2.1</v>
       </c>
@@ -3751,21 +3759,18 @@
       <c r="E27">
         <v>226.86680978331879</v>
       </c>
-      <c r="G27" s="8"/>
       <c r="H27">
         <v>2.2000000000000002</v>
       </c>
       <c r="I27">
         <v>8.8165753732260299</v>
       </c>
-      <c r="K27" s="8"/>
       <c r="L27">
         <v>2.2000000000000002</v>
       </c>
       <c r="M27">
         <v>599.89289244821009</v>
       </c>
-      <c r="O27" s="8"/>
       <c r="P27">
         <v>2.2000000000000002</v>
       </c>
@@ -3780,21 +3785,18 @@
       <c r="E28">
         <v>211.64412185472372</v>
       </c>
-      <c r="G28" s="8"/>
       <c r="H28">
         <v>2.2999999999999998</v>
       </c>
       <c r="I28">
         <v>7.070117911395239</v>
       </c>
-      <c r="K28" s="8"/>
       <c r="L28">
         <v>2.2999999999999998</v>
       </c>
       <c r="M28">
         <v>587.46912233357386</v>
       </c>
-      <c r="O28" s="8"/>
       <c r="P28">
         <v>2.2999999999999998</v>
       </c>
@@ -3816,21 +3818,18 @@
       <c r="E29">
         <v>197.493446984363</v>
       </c>
-      <c r="G29" s="8"/>
       <c r="H29">
         <v>2.4</v>
       </c>
       <c r="I29">
         <v>5.6719932284483114</v>
       </c>
-      <c r="K29" s="8"/>
       <c r="L29">
         <v>2.4</v>
       </c>
       <c r="M29">
         <v>575.28048033454127</v>
       </c>
-      <c r="O29" s="8"/>
       <c r="P29">
         <v>2.4</v>
       </c>
@@ -3851,21 +3850,18 @@
       <c r="E30">
         <v>184.25158355061944</v>
       </c>
-      <c r="G30" s="8"/>
       <c r="H30">
         <v>2.5</v>
       </c>
       <c r="I30">
         <v>4.5498243032685561</v>
       </c>
-      <c r="K30" s="8"/>
       <c r="L30">
         <v>2.5</v>
       </c>
       <c r="M30">
         <v>563.32536657871503</v>
       </c>
-      <c r="O30" s="8"/>
       <c r="P30">
         <v>2.5</v>
       </c>
@@ -3880,31 +3876,25 @@
       <c r="B31">
         <v>156</v>
       </c>
-      <c r="C31" s="4">
-        <f>LN(2)/0.098</f>
-        <v>7.0729304138769926</v>
-      </c>
+      <c r="C31" s="8"/>
       <c r="D31">
         <v>2.6</v>
       </c>
       <c r="E31">
         <v>171.93679958468974</v>
       </c>
-      <c r="G31" s="8"/>
       <c r="H31">
         <v>2.6</v>
       </c>
       <c r="I31">
         <v>3.650549962082823</v>
       </c>
-      <c r="K31" s="8"/>
       <c r="L31">
         <v>2.6</v>
       </c>
       <c r="M31">
         <v>551.59640299272507</v>
       </c>
-      <c r="O31" s="8"/>
       <c r="P31">
         <v>2.6</v>
       </c>
@@ -3925,21 +3915,18 @@
       <c r="E32">
         <v>160.41407308976008</v>
       </c>
-      <c r="G32" s="8"/>
       <c r="H32">
         <v>2.7</v>
       </c>
       <c r="I32">
         <v>2.9291886788292771</v>
       </c>
-      <c r="K32" s="8"/>
       <c r="L32">
         <v>2.7</v>
       </c>
       <c r="M32">
         <v>540.09616266366697</v>
       </c>
-      <c r="O32" s="8"/>
       <c r="P32">
         <v>2.7</v>
       </c>
@@ -3954,31 +3941,24 @@
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33">
-        <f>_xlfn.FORECAST.LINEAR(78,A32:A33,B32:B33)</f>
-        <v>8.1006611947104386</v>
-      </c>
       <c r="D33">
         <v>2.8</v>
       </c>
       <c r="E33">
         <v>149.69436243448897</v>
       </c>
-      <c r="G33" s="8"/>
       <c r="H33">
         <v>2.8</v>
       </c>
       <c r="I33">
         <v>2.3505400164821211</v>
       </c>
-      <c r="K33" s="8"/>
       <c r="L33">
         <v>2.8</v>
       </c>
       <c r="M33">
         <v>528.82464559154528</v>
       </c>
-      <c r="O33" s="8"/>
       <c r="P33">
         <v>2.8</v>
       </c>
@@ -3999,21 +3979,18 @@
       <c r="E34">
         <v>139.6655027598153</v>
       </c>
-      <c r="G34" s="8"/>
       <c r="H34">
         <v>2.9</v>
       </c>
       <c r="I34">
         <v>1.8860895383176433</v>
       </c>
-      <c r="K34" s="8"/>
       <c r="L34">
         <v>2.9</v>
       </c>
       <c r="M34">
         <v>517.7818517763568</v>
       </c>
-      <c r="O34" s="8"/>
       <c r="P34">
         <v>2.9</v>
       </c>
@@ -4034,21 +4011,18 @@
       <c r="E35">
         <v>130.33290342105511</v>
       </c>
-      <c r="G35" s="8"/>
       <c r="H35">
         <v>3</v>
       </c>
       <c r="I35">
         <v>1.5128013318330749</v>
       </c>
-      <c r="K35" s="8"/>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
         <v>506.9485697515359</v>
       </c>
-      <c r="O35" s="8"/>
       <c r="P35">
         <v>3</v>
       </c>
@@ -4063,21 +4037,18 @@
       <c r="E36">
         <v>121.60315807993611</v>
       </c>
-      <c r="G36" s="8"/>
       <c r="H36">
         <v>3.0999999999999899</v>
       </c>
       <c r="I36">
         <v>1.2137460502517219</v>
       </c>
-      <c r="K36" s="8"/>
       <c r="L36">
         <v>3.0999999999999899</v>
       </c>
       <c r="M36">
         <v>496.33596842814393</v>
       </c>
-      <c r="O36" s="8"/>
       <c r="P36">
         <v>3.0999999999999899</v>
       </c>
@@ -4092,21 +4063,18 @@
       <c r="E37">
         <v>113.47749058030766</v>
       </c>
-      <c r="G37" s="8"/>
       <c r="H37">
         <v>3.19999999999999</v>
       </c>
       <c r="I37">
         <v>0.97365235617212798</v>
       </c>
-      <c r="K37" s="8"/>
       <c r="L37">
         <v>3.19999999999999</v>
       </c>
       <c r="M37">
         <v>485.94432837939121</v>
       </c>
-      <c r="O37" s="8"/>
       <c r="P37">
         <v>3.19999999999999</v>
       </c>
@@ -4128,32 +4096,29 @@
       <c r="E38">
         <v>105.87802586865844</v>
       </c>
-      <c r="G38" s="8"/>
       <c r="H38">
         <v>3.3</v>
       </c>
       <c r="I38">
         <v>0.7812417287864587</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="5">
         <f>_xlfn.FORECAST.LINEAR(I35/2,H38:H39,I38:I39)-3</f>
         <v>0.31609188263588628</v>
       </c>
-      <c r="K38" s="8"/>
       <c r="L38">
         <v>3.3</v>
       </c>
       <c r="M38">
         <v>475.7736496052658</v>
       </c>
-      <c r="O38" s="8"/>
       <c r="P38">
         <v>3.3</v>
       </c>
       <c r="Q38">
         <v>2.9002499823632957</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="4">
         <f>_xlfn.FORECAST.LINEAR(Q35/2,P38:P39,Q38:Q39)-3</f>
         <v>0.38344382984576075</v>
       </c>
@@ -4171,21 +4136,18 @@
       <c r="E39">
         <v>98.80286154812876</v>
       </c>
-      <c r="G39" s="8"/>
       <c r="H39">
         <v>3.4</v>
       </c>
       <c r="I39">
         <v>0.62687158184962388</v>
       </c>
-      <c r="K39" s="8"/>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
         <v>465.79498421372631</v>
       </c>
-      <c r="O39" s="8"/>
       <c r="P39">
         <v>3.4</v>
       </c>
@@ -4200,31 +4162,24 @@
       <c r="B40">
         <v>1455.8631963371199</v>
       </c>
-      <c r="C40">
-        <f>LN(2)/0.098</f>
-        <v>7.0729304138769926</v>
-      </c>
       <c r="D40">
         <v>3.5</v>
       </c>
       <c r="E40">
         <v>92.187056816052078</v>
       </c>
-      <c r="G40" s="8"/>
       <c r="H40">
         <v>3.5</v>
       </c>
       <c r="I40">
         <v>0.5030539659008525</v>
       </c>
-      <c r="K40" s="8"/>
       <c r="L40">
         <v>3.5</v>
       </c>
       <c r="M40">
         <v>456.02279564361004</v>
       </c>
-      <c r="O40" s="8"/>
       <c r="P40">
         <v>3.5</v>
       </c>
@@ -4245,21 +4200,18 @@
       <c r="E41">
         <v>86.026414675654422</v>
       </c>
-      <c r="G41" s="8"/>
       <c r="H41">
         <v>3.5999999999999899</v>
       </c>
       <c r="I41">
         <v>0.4037197132409322</v>
       </c>
-      <c r="K41" s="8"/>
       <c r="L41">
         <v>3.5999999999999899</v>
       </c>
       <c r="M41">
         <v>446.4589901797425</v>
       </c>
-      <c r="O41" s="8"/>
       <c r="P41">
         <v>3.5999999999999899</v>
       </c>
@@ -4280,21 +4232,18 @@
       <c r="E42">
         <v>80.266804055916325</v>
       </c>
-      <c r="G42" s="8"/>
       <c r="H42">
         <v>3.69999999999999</v>
       </c>
       <c r="I42">
         <v>0.32383529951718859</v>
       </c>
-      <c r="K42" s="8"/>
       <c r="L42">
         <v>3.69999999999999</v>
       </c>
       <c r="M42">
         <v>437.10356782212665</v>
       </c>
-      <c r="O42" s="8"/>
       <c r="P42">
         <v>3.69999999999999</v>
       </c>
@@ -4309,31 +4258,24 @@
       <c r="B43">
         <v>334.82871415681802</v>
       </c>
-      <c r="C43">
-        <f>_xlfn.FORECAST.LINEAR(206,A42:A43,B42:B43)</f>
-        <v>9.9133837580980462</v>
-      </c>
       <c r="D43">
         <v>3.8</v>
       </c>
       <c r="E43">
         <v>74.902389981913529</v>
       </c>
-      <c r="G43" s="8"/>
       <c r="H43">
         <v>3.8</v>
       </c>
       <c r="I43">
         <v>0.2598411501144961</v>
       </c>
-      <c r="K43" s="8"/>
       <c r="L43">
         <v>3.8</v>
       </c>
       <c r="M43">
         <v>427.92593293794766</v>
       </c>
-      <c r="O43" s="8"/>
       <c r="P43">
         <v>3.8</v>
       </c>
@@ -4354,21 +4296,18 @@
       <c r="E44">
         <v>69.888091739260389</v>
       </c>
-      <c r="G44" s="8"/>
       <c r="H44">
         <v>3.9</v>
       </c>
       <c r="I44">
         <v>0.20847122747802146</v>
       </c>
-      <c r="K44" s="8"/>
       <c r="L44">
         <v>3.9</v>
       </c>
       <c r="M44">
         <v>418.93854120578322</v>
       </c>
-      <c r="O44" s="8"/>
       <c r="P44">
         <v>3.9</v>
       </c>
@@ -4389,25 +4328,22 @@
       <c r="E45">
         <v>65.216954966667743</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <f>_xlfn.FORECAST.LINEAR(E35/2,D45:D46,E45:E46)-3</f>
         <v>1.0011568790414209</v>
       </c>
-      <c r="G45" s="8"/>
       <c r="H45">
         <v>4</v>
       </c>
       <c r="I45">
         <v>0.16731073304384389</v>
       </c>
-      <c r="K45" s="8"/>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
         <v>410.14517649871743</v>
       </c>
-      <c r="O45" s="8"/>
       <c r="P45">
         <v>4</v>
       </c>
@@ -4422,21 +4358,18 @@
       <c r="E46">
         <v>60.851480761329434</v>
       </c>
-      <c r="G46" s="8"/>
       <c r="H46">
         <v>4.0999999999999996</v>
       </c>
       <c r="I46">
         <v>0.13428203813350517</v>
       </c>
-      <c r="K46" s="8"/>
       <c r="L46">
         <v>4.0999999999999996</v>
       </c>
       <c r="M46">
         <v>401.54583881674137</v>
       </c>
-      <c r="O46" s="8"/>
       <c r="P46">
         <v>4.0999999999999996</v>
       </c>
@@ -4451,21 +4384,18 @@
       <c r="E47">
         <v>56.784003202363934</v>
       </c>
-      <c r="G47" s="8"/>
       <c r="H47">
         <v>4.2</v>
       </c>
       <c r="I47">
         <v>0.10778855560566426</v>
       </c>
-      <c r="K47" s="8"/>
       <c r="L47">
         <v>4.2</v>
       </c>
       <c r="M47">
         <v>393.11161552973056</v>
       </c>
-      <c r="O47" s="8"/>
       <c r="P47">
         <v>4.2</v>
       </c>
@@ -4480,21 +4410,18 @@
       <c r="E48">
         <v>52.983373738979004</v>
       </c>
-      <c r="G48" s="8"/>
       <c r="H48">
         <v>4.3</v>
       </c>
       <c r="I48">
         <v>8.6537974096296988E-2</v>
       </c>
-      <c r="K48" s="8"/>
       <c r="L48">
         <v>4.3</v>
       </c>
       <c r="M48">
         <v>384.8512222339404</v>
       </c>
-      <c r="O48" s="8"/>
       <c r="P48">
         <v>4.3</v>
       </c>
@@ -4509,21 +4436,18 @@
       <c r="E49">
         <v>49.441533008152419</v>
       </c>
-      <c r="G49" s="8"/>
       <c r="H49">
         <v>4.4000000000000004</v>
       </c>
       <c r="I49">
         <v>6.9433667616435171E-2</v>
       </c>
-      <c r="K49" s="8"/>
       <c r="L49">
         <v>4.4000000000000004</v>
       </c>
       <c r="M49">
         <v>376.7701372440348</v>
       </c>
-      <c r="O49" s="8"/>
       <c r="P49">
         <v>4.4000000000000004</v>
       </c>
@@ -4538,21 +4462,18 @@
       <c r="E50">
         <v>46.13264830469037</v>
       </c>
-      <c r="G50" s="8"/>
       <c r="H50">
         <v>4.5</v>
       </c>
       <c r="I50">
         <v>5.5725342568669158E-2</v>
       </c>
-      <c r="K50" s="8"/>
       <c r="L50">
         <v>4.5</v>
       </c>
       <c r="M50">
         <v>368.86836056001675</v>
       </c>
-      <c r="O50" s="8"/>
       <c r="P50">
         <v>4.5</v>
       </c>
@@ -4567,21 +4488,18 @@
       <c r="E51">
         <v>43.048512196453359</v>
       </c>
-      <c r="G51" s="8"/>
       <c r="H51">
         <v>4.5999999999999996</v>
       </c>
       <c r="I51">
         <v>4.471457847822094E-2</v>
       </c>
-      <c r="K51" s="8"/>
       <c r="L51">
         <v>4.5999999999999996</v>
       </c>
       <c r="M51">
         <v>361.12020655488777</v>
       </c>
-      <c r="O51" s="8"/>
       <c r="P51">
         <v>4.5999999999999996</v>
       </c>
@@ -4596,21 +4514,18 @@
       <c r="E52">
         <v>40.167738061860192</v>
       </c>
-      <c r="G52" s="8"/>
       <c r="H52">
         <v>4.7</v>
       </c>
       <c r="I52">
         <v>3.5888489578796881E-2</v>
       </c>
-      <c r="K52" s="8"/>
       <c r="L52">
         <v>4.7</v>
       </c>
       <c r="M52">
         <v>353.53028844380765</v>
       </c>
-      <c r="O52" s="8"/>
       <c r="P52">
         <v>4.7</v>
       </c>
@@ -4625,21 +4540,18 @@
       <c r="E53">
         <v>37.482156862120775</v>
       </c>
-      <c r="G53" s="8"/>
       <c r="H53">
         <v>4.8</v>
       </c>
       <c r="I53">
         <v>2.8803531854716145E-2</v>
       </c>
-      <c r="K53" s="8"/>
       <c r="L53">
         <v>4.8</v>
       </c>
       <c r="M53">
         <v>346.10541583267343</v>
       </c>
-      <c r="O53" s="8"/>
       <c r="P53">
         <v>4.8</v>
       </c>
@@ -4654,21 +4566,18 @@
       <c r="E54">
         <v>34.974096884669009</v>
       </c>
-      <c r="G54" s="8"/>
       <c r="H54">
         <v>4.9000000000000004</v>
       </c>
       <c r="I54">
         <v>2.3120444343245915E-2</v>
       </c>
-      <c r="K54" s="8"/>
       <c r="L54">
         <v>4.9000000000000004</v>
       </c>
       <c r="M54">
         <v>338.84558872148955</v>
       </c>
-      <c r="O54" s="8"/>
       <c r="P54">
         <v>4.9000000000000004</v>
       </c>
@@ -4683,21 +4592,18 @@
       <c r="E55">
         <v>32.635566452380836</v>
       </c>
-      <c r="G55" s="8"/>
       <c r="H55">
         <v>5</v>
       </c>
       <c r="I55">
         <v>1.8563162897966109E-2</v>
       </c>
-      <c r="K55" s="8"/>
       <c r="L55">
         <v>5</v>
       </c>
       <c r="M55">
         <v>331.72879181714512</v>
       </c>
-      <c r="O55" s="8"/>
       <c r="P55">
         <v>5</v>
       </c>
@@ -5017,7 +4923,7 @@
       <c r="M67">
         <v>257.04557294874201</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="4">
         <f>_xlfn.FORECAST.LINEAR(M35/2,L67:L68,M67:M68)-3</f>
         <v>3.2659836991591638</v>
       </c>
@@ -5327,16 +5233,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rabbit/Convection_Related_Plots/Rabbit_Vitreous_Humor_Results_Middle_Vitreous_Fast.xlsx
+++ b/Rabbit/Convection_Related_Plots/Rabbit_Vitreous_Humor_Results_Middle_Vitreous_Fast.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Rabbit/Convection_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93127C15-0C36-47C1-B0EC-A047DC487492}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D470DBA6-356B-4635-8A5C-2DFDFF9BB058}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Vitreous concentrations" sheetId="2" r:id="rId1"/>
+    <sheet name="Half-lifes" sheetId="3" r:id="rId2"/>
+    <sheet name="Duration of action" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="20">
   <si>
     <t>Experimental data</t>
   </si>
@@ -90,13 +91,13 @@
     <t>Reported</t>
   </si>
   <si>
-    <t>half-life</t>
-  </si>
-  <si>
     <t>stdv</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>half-life (d)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,14 +489,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596589CB-4D4B-4B0D-B9B7-0073155E1CCB}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="O1" sqref="A1:O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -504,7 +519,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
@@ -791,7 +806,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>3.5</v>
@@ -1112,7 +1127,7 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>8.5</v>
@@ -1337,7 +1352,7 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1407,7 +1422,7 @@
         <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>13</v>
@@ -1442,7 +1457,7 @@
         <v>87.3333333333333</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>13.5</v>
@@ -1477,7 +1492,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>14</v>
@@ -1512,7 +1527,7 @@
         <v>19.1404115825896</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>14.5</v>
@@ -1547,7 +1562,7 @@
         <v>2.4221453287196901</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -1632,7 +1647,7 @@
       </c>
       <c r="B38" s="6"/>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>16.5</v>
@@ -2967,16 +2982,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2986,11 +3001,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECEB316-5016-42DF-A3DE-AA9244DE544A}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C6" sqref="C5:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
@@ -3046,7 +3071,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -3055,7 +3080,7 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
@@ -3064,7 +3089,7 @@
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
@@ -3073,7 +3098,7 @@
         <v>6</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3876,7 +3901,6 @@
       <c r="B31">
         <v>156</v>
       </c>
-      <c r="C31" s="8"/>
       <c r="D31">
         <v>2.6</v>
       </c>
@@ -5233,16 +5257,2496 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBE4333-5683-4B42-948E-09EB9C8FE334}">
+  <dimension ref="A1:N85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.92903225806451795</v>
+      </c>
+      <c r="B5">
+        <v>414.93257202146998</v>
+      </c>
+      <c r="C5">
+        <v>97.58</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>856.53182832755829</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>856.53183763415643</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>856.53182823740588</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>856.53183738030964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.9419354838709699</v>
+      </c>
+      <c r="B6">
+        <v>328.74104593189298</v>
+      </c>
+      <c r="C6">
+        <v>53.8</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>721.30333066561059</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>369.33601852037953</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>832.37091210459891</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>442.62839658114382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.8967741935483797</v>
+      </c>
+      <c r="B7">
+        <v>129.52677443553199</v>
+      </c>
+      <c r="C7">
+        <v>29.02</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>520.60594726826525</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>124.32018082280992</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>764.92084322169183</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>185.69261966165041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14.967741935483801</v>
+      </c>
+      <c r="B8">
+        <v>48.461098954332002</v>
+      </c>
+      <c r="C8">
+        <v>6.36</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>368.80223455459742</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>41.686098995974746</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>693.12592152234993</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>75.795258708506111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>29.109677419354799</v>
+      </c>
+      <c r="B9">
+        <v>4.6017322765137996</v>
+      </c>
+      <c r="C9">
+        <v>0.52</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>260.91473107625995</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>13.981149283684248</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>625.42870872241451</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>30.563329637369733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>184.26402792811339</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4.6891233942844215</v>
+      </c>
+      <c r="J10">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>563.31741648769219</v>
+      </c>
+      <c r="M10">
+        <v>2.5</v>
+      </c>
+      <c r="N10">
+        <v>12.29593685240761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>130.11175297000835</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1.5728324030643628</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>506.97281965961889</v>
+      </c>
+      <c r="M11" s="8">
+        <v>3</v>
+      </c>
+      <c r="N11" s="8">
+        <v>4.9441673941399253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>3.5</v>
+      </c>
+      <c r="E12">
+        <v>91.937003180436889</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+      <c r="H12">
+        <v>0.5276631035321937</v>
+      </c>
+      <c r="J12">
+        <v>3.5</v>
+      </c>
+      <c r="K12">
+        <v>456.06618111418567</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>1.9863763441370499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>64.973801417422919</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0.17709954029404057</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>410.15399821265959</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>0.79828211925490622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.959595959595962</v>
+      </c>
+      <c r="B14">
+        <v>517.94746792312196</v>
+      </c>
+      <c r="C14">
+        <v>160.13</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>45.919407916532315</v>
+      </c>
+      <c r="G14">
+        <v>4.5</v>
+      </c>
+      <c r="H14">
+        <v>5.9505170755144242E-2</v>
+      </c>
+      <c r="J14">
+        <v>4.5</v>
+      </c>
+      <c r="K14">
+        <v>368.83565979902733</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>0.32091493499486784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.9797979797979801</v>
+      </c>
+      <c r="B15">
+        <v>89.615050194660597</v>
+      </c>
+      <c r="C15">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>32.453281135741378</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1.9991755497326943E-2</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>331.67026751016039</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>0.12909063830981732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7.9292929292929299</v>
+      </c>
+      <c r="B16">
+        <v>57.796928841533195</v>
+      </c>
+      <c r="C16">
+        <v>16.66</v>
+      </c>
+      <c r="D16">
+        <v>5.5</v>
+      </c>
+      <c r="E16">
+        <v>22.936395092749716</v>
+      </c>
+      <c r="G16">
+        <v>5.5</v>
+      </c>
+      <c r="H16">
+        <v>6.717611001504629E-3</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16">
+        <v>298.24764889672906</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
+        <v>5.1907170448256094E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14.8989898989899</v>
+      </c>
+      <c r="B17">
+        <v>26.826957952797198</v>
+      </c>
+      <c r="C17">
+        <v>7.31</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>16.210495383116722</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>2.2568239152860178E-3</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>268.19304650434259</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>2.0878816175003687E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28.939393939393899</v>
+      </c>
+      <c r="B18">
+        <v>5.9948425031894104</v>
+      </c>
+      <c r="C18">
+        <v>1.82</v>
+      </c>
+      <c r="D18">
+        <v>6.5</v>
+      </c>
+      <c r="E18">
+        <v>11.457039483876029</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <v>7.5835822151444101E-4</v>
+      </c>
+      <c r="J18">
+        <v>6.5</v>
+      </c>
+      <c r="K18">
+        <v>241.16747148913822</v>
+      </c>
+      <c r="M18">
+        <v>6.5</v>
+      </c>
+      <c r="N18">
+        <v>8.4002354471913229E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>8.0975559541927513</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>2.5476933404979684E-4</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>216.72664369204102</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>3.3800610589183526E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>7.5</v>
+      </c>
+      <c r="E20">
+        <v>5.7232491544964521</v>
+      </c>
+      <c r="G20">
+        <v>7.5</v>
+      </c>
+      <c r="H20">
+        <v>8.561171389082256E-5</v>
+      </c>
+      <c r="J20">
+        <v>7.5</v>
+      </c>
+      <c r="K20">
+        <v>194.71650278979604</v>
+      </c>
+      <c r="M20">
+        <v>7.5</v>
+      </c>
+      <c r="N20">
+        <v>1.3591599736509424E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>4.0452511278161039</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>2.8760682633319736E-5</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>174.83669386676669</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>5.4670017018626038E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2.859203689097892</v>
+      </c>
+      <c r="G22">
+        <v>8.5</v>
+      </c>
+      <c r="H22">
+        <v>9.664081280808433E-6</v>
+      </c>
+      <c r="J22">
+        <v>8.5</v>
+      </c>
+      <c r="K22">
+        <v>157.11392368950754</v>
+      </c>
+      <c r="M22">
+        <v>8.5</v>
+      </c>
+      <c r="N22">
+        <v>2.1995533219339386E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>2.0207506766609931</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>3.2467840955341809E-6</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>141.03872310390275</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>8.8504937158538237E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>59.2</v>
+      </c>
+      <c r="C24">
+        <v>12.24</v>
+      </c>
+      <c r="D24">
+        <v>9.5</v>
+      </c>
+      <c r="E24">
+        <v>1.4281821725217687</v>
+      </c>
+      <c r="G24">
+        <v>9.5</v>
+      </c>
+      <c r="H24">
+        <v>1.0909200207086663E-6</v>
+      </c>
+      <c r="J24">
+        <v>9.5</v>
+      </c>
+      <c r="K24">
+        <v>126.72462961578063</v>
+      </c>
+      <c r="M24">
+        <v>9.5</v>
+      </c>
+      <c r="N24">
+        <v>3.5589006295976884E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>1.0093818745382177</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>3.6652991906370361E-7</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>113.7274447136278</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>1.4315059110505588E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>3.5</v>
+      </c>
+      <c r="C26">
+        <v>0.84</v>
+      </c>
+      <c r="D26">
+        <v>10.5</v>
+      </c>
+      <c r="E26">
+        <v>0.71338920627632518</v>
+      </c>
+      <c r="G26">
+        <v>10.5</v>
+      </c>
+      <c r="H26">
+        <v>1.2314867834470324E-7</v>
+      </c>
+      <c r="J26">
+        <v>10.5</v>
+      </c>
+      <c r="K26">
+        <v>102.17485245126133</v>
+      </c>
+      <c r="M26">
+        <v>10.5</v>
+      </c>
+      <c r="N26">
+        <v>5.7594059492502336E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>0.5041901560946761</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>4.1377750916482728E-8</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>91.693114424885323</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>2.3174506194440193E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>11.5</v>
+      </c>
+      <c r="E28">
+        <v>0.3563420316828898</v>
+      </c>
+      <c r="G28">
+        <v>11.5</v>
+      </c>
+      <c r="H28">
+        <v>1.3901788082616366E-8</v>
+      </c>
+      <c r="J28">
+        <v>11.5</v>
+      </c>
+      <c r="K28">
+        <v>82.372897333157169</v>
+      </c>
+      <c r="M28">
+        <v>11.5</v>
+      </c>
+      <c r="N28">
+        <v>9.3188253707603168E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0.25185292898226602</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>4.6711670349460825E-9</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>73.924142196297851</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>3.7483237486387616E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>12.5</v>
+      </c>
+      <c r="E30">
+        <v>0.17800463378867443</v>
+      </c>
+      <c r="G30">
+        <v>12.5</v>
+      </c>
+      <c r="H30">
+        <v>1.5693333673804587E-9</v>
+      </c>
+      <c r="J30">
+        <v>12.5</v>
+      </c>
+      <c r="K30">
+        <v>66.405877077468148</v>
+      </c>
+      <c r="M30">
+        <v>12.5</v>
+      </c>
+      <c r="N30">
+        <v>1.508067885239523E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.7431372549019502</v>
+      </c>
+      <c r="B31">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0.12581104969038406</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>5.2733260833719618E-10</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>59.597569151441753</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>6.0681104831020947E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6.9617647058823504</v>
+      </c>
+      <c r="B32">
+        <v>87.3333333333333</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>13.5</v>
+      </c>
+      <c r="E32">
+        <v>8.8922021664427489E-2</v>
+      </c>
+      <c r="G32">
+        <v>13.5</v>
+      </c>
+      <c r="H32">
+        <v>1.7715889865876481E-10</v>
+      </c>
+      <c r="J32">
+        <v>13.5</v>
+      </c>
+      <c r="K32">
+        <v>53.532951577813883</v>
+      </c>
+      <c r="M32">
+        <v>13.5</v>
+      </c>
+      <c r="N32">
+        <v>2.4400936873456088E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13.957843137254899</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>6.2849693872832887E-2</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>5.9531143847381844E-11</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>48.047398970126373</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>9.8147909449748439E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27.9470588235294</v>
+      </c>
+      <c r="B34">
+        <v>19.1404115825896</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>14.5</v>
+      </c>
+      <c r="E34">
+        <v>4.4422259809129901E-2</v>
+      </c>
+      <c r="G34">
+        <v>14.5</v>
+      </c>
+      <c r="H34">
+        <v>1.9999242406450552E-11</v>
+      </c>
+      <c r="J34">
+        <v>14.5</v>
+      </c>
+      <c r="K34">
+        <v>43.155191277140581</v>
+      </c>
+      <c r="M34">
+        <v>14.5</v>
+      </c>
+      <c r="N34">
+        <v>3.9487905357348292E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>41.942156862745001</v>
+      </c>
+      <c r="B35">
+        <v>2.4221453287196901</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>3.1398012432646852E-2</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>6.7203063589688241E-12</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>38.735860543461456</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>1.5888996511575281E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>15.5</v>
+      </c>
+      <c r="E36">
+        <v>2.2192595527805555E-2</v>
+      </c>
+      <c r="G36">
+        <v>15.5</v>
+      </c>
+      <c r="H36">
+        <v>2.2378590192501764E-12</v>
+      </c>
+      <c r="J36">
+        <v>15.5</v>
+      </c>
+      <c r="K36">
+        <v>34.789182042230152</v>
+      </c>
+      <c r="M36">
+        <v>15.5</v>
+      </c>
+      <c r="N36">
+        <v>6.3892788997020112E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>1.5686241093424588E-2</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>7.4092053413245104E-13</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <v>31.229133539206224</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>2.5699520645781792E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>16.5</v>
+      </c>
+      <c r="E38">
+        <v>1.1087533523958498E-2</v>
+      </c>
+      <c r="G38">
+        <v>16.5</v>
+      </c>
+      <c r="H38">
+        <v>2.4537977327588099E-13</v>
+      </c>
+      <c r="J38">
+        <v>16.5</v>
+      </c>
+      <c r="K38">
+        <v>28.045019183478654</v>
+      </c>
+      <c r="M38">
+        <v>16.5</v>
+      </c>
+      <c r="N38">
+        <v>1.0339684979581966E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>7.8371239302211983E-3</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>8.1421752901888664E-14</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>25.177397271105455</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>4.1604418820690568E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1471.7436403597401</v>
+      </c>
+      <c r="C40">
+        <v>99.8</v>
+      </c>
+      <c r="D40">
+        <v>17.5</v>
+      </c>
+      <c r="E40">
+        <v>5.5396794703240623E-3</v>
+      </c>
+      <c r="G40">
+        <v>17.5</v>
+      </c>
+      <c r="H40">
+        <v>2.6840262574701015E-14</v>
+      </c>
+      <c r="J40">
+        <v>17.5</v>
+      </c>
+      <c r="K40">
+        <v>22.608314602452236</v>
+      </c>
+      <c r="M40">
+        <v>17.5</v>
+      </c>
+      <c r="N40">
+        <v>1.6730048784810582E-11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.84207459207458746</v>
+      </c>
+      <c r="B41">
+        <v>679.46616012253696</v>
+      </c>
+      <c r="C41">
+        <v>41.36</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>3.9157263780012774E-3</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>8.2989390892165429E-15</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>20.298614910108654</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>6.7292862455518659E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4.9206002331002088</v>
+      </c>
+      <c r="B42">
+        <v>334.56116246598299</v>
+      </c>
+      <c r="C42">
+        <v>37.07</v>
+      </c>
+      <c r="D42">
+        <v>18.5</v>
+      </c>
+      <c r="E42">
+        <v>2.7675135008437498E-3</v>
+      </c>
+      <c r="G42">
+        <v>18.5</v>
+      </c>
+      <c r="H42">
+        <v>2.5715259883647447E-15</v>
+      </c>
+      <c r="J42">
+        <v>18.5</v>
+      </c>
+      <c r="K42">
+        <v>18.225604149859745</v>
+      </c>
+      <c r="M42">
+        <v>18.5</v>
+      </c>
+      <c r="N42">
+        <v>2.7108100030415987E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14.004953379953376</v>
+      </c>
+      <c r="B43">
+        <v>127.31955290816499</v>
+      </c>
+      <c r="C43">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>1.9559927966810637E-3</v>
+      </c>
+      <c r="G43">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>6.7064621390475129E-16</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>16.365415729710662</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>1.0940293366667197E-12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30.129662004661999</v>
+      </c>
+      <c r="B44">
+        <v>32.3958597771421</v>
+      </c>
+      <c r="C44">
+        <v>5.58</v>
+      </c>
+      <c r="D44">
+        <v>19.5</v>
+      </c>
+      <c r="E44">
+        <v>1.3824363744471819E-3</v>
+      </c>
+      <c r="G44">
+        <v>19.5</v>
+      </c>
+      <c r="H44">
+        <v>8.3442441482387722E-17</v>
+      </c>
+      <c r="J44">
+        <v>19.5</v>
+      </c>
+      <c r="K44">
+        <v>14.692553311874752</v>
+      </c>
+      <c r="M44">
+        <v>19.5</v>
+      </c>
+      <c r="N44">
+        <v>4.4137420394398617E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>9.7706569916716649E-4</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>-1.8738666326772544E-17</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>13.194504783299442</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>1.7811247695209616E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>20.5</v>
+      </c>
+      <c r="E46">
+        <v>6.9056318085428093E-4</v>
+      </c>
+      <c r="G46">
+        <v>20.5</v>
+      </c>
+      <c r="H46">
+        <v>-5.8677966278242559E-17</v>
+      </c>
+      <c r="J46">
+        <v>20.5</v>
+      </c>
+      <c r="K46">
+        <v>11.844438649206609</v>
+      </c>
+      <c r="M46">
+        <v>20.5</v>
+      </c>
+      <c r="N46">
+        <v>7.1827455204806611E-14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>4.8807261407576825E-4</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>-4.5814583940669196E-17</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>10.638120407768429</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>2.7855427590739957E-14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>21.5</v>
+      </c>
+      <c r="E48">
+        <v>3.4495875374504433E-4</v>
+      </c>
+      <c r="G48">
+        <v>21.5</v>
+      </c>
+      <c r="H48">
+        <v>-4.0844321663338672E-17</v>
+      </c>
+      <c r="J48">
+        <v>21.5</v>
+      </c>
+      <c r="K48">
+        <v>9.5484707400883213</v>
+      </c>
+      <c r="M48">
+        <v>21.5</v>
+      </c>
+      <c r="N48">
+        <v>1.0771463780904623E-14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>2.4381024958147632E-4</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <v>-3.5874059386008148E-17</v>
+      </c>
+      <c r="J49">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>8.5771460568876101</v>
+      </c>
+      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>4.1595170406329606E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>22.5</v>
+      </c>
+      <c r="E50">
+        <v>1.7232138027762272E-4</v>
+      </c>
+      <c r="G50">
+        <v>22.5</v>
+      </c>
+      <c r="H50">
+        <v>-3.0903797108677771E-17</v>
+      </c>
+      <c r="J50">
+        <v>22.5</v>
+      </c>
+      <c r="K50">
+        <v>7.6976040093945928</v>
+      </c>
+      <c r="M50">
+        <v>22.5</v>
+      </c>
+      <c r="N50">
+        <v>1.3507408866288137E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>1.2179491424338147E-4</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>-2.6694004806288622E-17</v>
+      </c>
+      <c r="J51">
+        <v>23</v>
+      </c>
+      <c r="K51">
+        <v>6.9155569888273067</v>
+      </c>
+      <c r="M51">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>3.624448755651532E-16</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>23.5</v>
+      </c>
+      <c r="E52">
+        <v>8.6083973125764603E-5</v>
+      </c>
+      <c r="G52">
+        <v>23.5</v>
+      </c>
+      <c r="H52">
+        <v>-2.2527910475641587E-17</v>
+      </c>
+      <c r="J52">
+        <v>23.5</v>
+      </c>
+      <c r="K52">
+        <v>6.2055461258317921</v>
+      </c>
+      <c r="M52">
+        <v>23.5</v>
+      </c>
+      <c r="N52">
+        <v>8.0767519388718175E-17</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>6.0844173758669544E-5</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>-1.836181614499455E-17</v>
+      </c>
+      <c r="J53">
+        <v>24</v>
+      </c>
+      <c r="K53">
+        <v>5.5749575878107498</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>-1.8625295911056507E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>24.5</v>
+      </c>
+      <c r="E54">
+        <v>4.3005067418477816E-5</v>
+      </c>
+      <c r="G54">
+        <v>24.5</v>
+      </c>
+      <c r="H54">
+        <v>-1.4195721814347414E-17</v>
+      </c>
+      <c r="J54">
+        <v>24.5</v>
+      </c>
+      <c r="K54">
+        <v>5.002734727881947</v>
+      </c>
+      <c r="M54">
+        <v>24.5</v>
+      </c>
+      <c r="N54">
+        <v>-4.3443939519558147E-17</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>3.0396572275382174E-5</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>-1.0029627483700349E-17</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>4.4941802342535038</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>-4.8528779556379898E-17</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>25.5</v>
+      </c>
+      <c r="E56">
+        <v>2.1484950157463881E-5</v>
+      </c>
+      <c r="G56">
+        <v>25.5</v>
+      </c>
+      <c r="H56">
+        <v>-5.8635331530533134E-18</v>
+      </c>
+      <c r="J56">
+        <v>25.5</v>
+      </c>
+      <c r="K56">
+        <v>4.0330940188207336</v>
+      </c>
+      <c r="M56">
+        <v>25.5</v>
+      </c>
+      <c r="N56">
+        <v>-5.3613619593201206E-17</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>1.5186205451021138E-5</v>
+      </c>
+      <c r="G57">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>-2.13833576537227E-18</v>
+      </c>
+      <c r="J57">
+        <v>26</v>
+      </c>
+      <c r="K57">
+        <v>3.622929566603712</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>-5.8698459630022513E-17</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>26.5</v>
+      </c>
+      <c r="E58">
+        <v>1.0734203086684069E-5</v>
+      </c>
+      <c r="G58">
+        <v>26.5</v>
+      </c>
+      <c r="H58">
+        <v>-1.1002429985570064E-18</v>
+      </c>
+      <c r="J58">
+        <v>26.5</v>
+      </c>
+      <c r="K58">
+        <v>3.2514200543081406</v>
+      </c>
+      <c r="M58">
+        <v>26.5</v>
+      </c>
+      <c r="N58">
+        <v>-5.6697582263668705E-17</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>7.5874598176886115E-6</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>-6.2150231741714854E-20</v>
+      </c>
+      <c r="J59">
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <v>2.9205874962390697</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59">
+        <v>-5.1573941905174538E-17</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>27.5</v>
+      </c>
+      <c r="E60">
+        <v>5.3632681867216081E-6</v>
+      </c>
+      <c r="G60">
+        <v>27.5</v>
+      </c>
+      <c r="H60">
+        <v>9.7594253507357186E-19</v>
+      </c>
+      <c r="J60" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="K60" s="8">
+        <v>2.6212728846115034</v>
+      </c>
+      <c r="M60">
+        <v>27.5</v>
+      </c>
+      <c r="N60">
+        <v>-4.6450301546680223E-17</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>3.7906407544490321E-6</v>
+      </c>
+      <c r="G61">
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <v>2.0140353018888417E-18</v>
+      </c>
+      <c r="J61">
+        <v>28</v>
+      </c>
+      <c r="K61">
+        <v>2.3544096225701927</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>-4.1326661188186063E-17</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>28.5</v>
+      </c>
+      <c r="E62">
+        <v>2.6791071669927407E-6</v>
+      </c>
+      <c r="G62">
+        <v>28.5</v>
+      </c>
+      <c r="H62">
+        <v>3.0521280687041156E-18</v>
+      </c>
+      <c r="J62">
+        <v>28.5</v>
+      </c>
+      <c r="K62">
+        <v>2.113277231045247</v>
+      </c>
+      <c r="M62">
+        <v>28.5</v>
+      </c>
+      <c r="N62">
+        <v>-3.6203020829691594E-17</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>1.893511199747236E-6</v>
+      </c>
+      <c r="G63">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <v>4.0902208355194049E-18</v>
+      </c>
+      <c r="J63">
+        <v>29</v>
+      </c>
+      <c r="K63">
+        <v>1.8979987342695035</v>
+      </c>
+      <c r="M63">
+        <v>29</v>
+      </c>
+      <c r="N63">
+        <v>-3.1079380471197581E-17</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>29.5</v>
+      </c>
+      <c r="E64">
+        <v>1.338277933824399E-6</v>
+      </c>
+      <c r="G64">
+        <v>29.5</v>
+      </c>
+      <c r="H64">
+        <v>5.1283136023346792E-18</v>
+      </c>
+      <c r="J64">
+        <v>29.5</v>
+      </c>
+      <c r="K64">
+        <v>1.7037523863205017</v>
+      </c>
+      <c r="M64">
+        <v>29.5</v>
+      </c>
+      <c r="N64">
+        <v>-2.5955740112703267E-17</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>9.4585752795549361E-7</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>5.9732577594307372E-18</v>
+      </c>
+      <c r="J65">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>1.5300740825821433</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>-2.2594474304515749E-17</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>30.5</v>
+      </c>
+      <c r="E66">
+        <v>6.6850772619970369E-7</v>
+      </c>
+      <c r="G66">
+        <v>30.5</v>
+      </c>
+      <c r="H66">
+        <v>5.6410322174153418E-18</v>
+      </c>
+      <c r="J66">
+        <v>30.5</v>
+      </c>
+      <c r="K66">
+        <v>1.3736078658974085</v>
+      </c>
+      <c r="M66">
+        <v>30.5</v>
+      </c>
+      <c r="N66">
+        <v>-1.9310241318376638E-17</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>4.7248581496058452E-7</v>
+      </c>
+      <c r="G67">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <v>5.308806675399931E-18</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>1.233479549525319</v>
+      </c>
+      <c r="M67">
+        <v>31</v>
+      </c>
+      <c r="N67">
+        <v>-1.6026008332237377E-17</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>31.5</v>
+      </c>
+      <c r="E68">
+        <v>3.3394358335409393E-7</v>
+      </c>
+      <c r="G68">
+        <v>31.5</v>
+      </c>
+      <c r="H68">
+        <v>4.9765811333845648E-18</v>
+      </c>
+      <c r="J68">
+        <v>31.5</v>
+      </c>
+      <c r="K68">
+        <v>1.1074536606264229</v>
+      </c>
+      <c r="M68">
+        <v>31.5</v>
+      </c>
+      <c r="N68">
+        <v>-1.2741775346098177E-17</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>2.3602595982907557E-7</v>
+      </c>
+      <c r="G69">
+        <v>32</v>
+      </c>
+      <c r="H69">
+        <v>4.6443555913691995E-18</v>
+      </c>
+      <c r="J69">
+        <v>32</v>
+      </c>
+      <c r="K69">
+        <v>0.99438457420189019</v>
+      </c>
+      <c r="M69">
+        <v>32</v>
+      </c>
+      <c r="N69">
+        <v>-9.4575423599589477E-18</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>32.5</v>
+      </c>
+      <c r="E70">
+        <v>1.6682039606658774E-7</v>
+      </c>
+      <c r="G70">
+        <v>32.5</v>
+      </c>
+      <c r="H70">
+        <v>4.3121300493538341E-18</v>
+      </c>
+      <c r="J70">
+        <v>32.5</v>
+      </c>
+      <c r="K70">
+        <v>0.89288343737254261</v>
+      </c>
+      <c r="M70">
+        <v>32.5</v>
+      </c>
+      <c r="N70">
+        <v>-6.173309373819747E-18</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>1.1790754692054794E-7</v>
+      </c>
+      <c r="G71">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <v>3.9799045073384972E-18</v>
+      </c>
+      <c r="J71">
+        <v>33</v>
+      </c>
+      <c r="K71">
+        <v>0.80164019417835108</v>
+      </c>
+      <c r="M71">
+        <v>33</v>
+      </c>
+      <c r="N71">
+        <v>-2.8890763876804573E-18</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>33.5</v>
+      </c>
+      <c r="E72">
+        <v>8.3336935003318969E-8</v>
+      </c>
+      <c r="G72">
+        <v>33.5</v>
+      </c>
+      <c r="H72">
+        <v>3.6476789653231319E-18</v>
+      </c>
+      <c r="J72">
+        <v>33.5</v>
+      </c>
+      <c r="K72">
+        <v>0.71989667910170008</v>
+      </c>
+      <c r="M72">
+        <v>33.5</v>
+      </c>
+      <c r="N72">
+        <v>3.9515659845877303E-19</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>5.8902984526176903E-8</v>
+      </c>
+      <c r="G73">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>3.3104174778531523E-18</v>
+      </c>
+      <c r="J73">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>0.64625960803040983</v>
+      </c>
+      <c r="M73">
+        <v>34</v>
+      </c>
+      <c r="N73">
+        <v>1.1172350862731787E-18</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>34.5</v>
+      </c>
+      <c r="E74">
+        <v>4.1633347952544673E-8</v>
+      </c>
+      <c r="G74">
+        <v>34.5</v>
+      </c>
+      <c r="H74">
+        <v>2.9424637560249043E-18</v>
+      </c>
+      <c r="J74">
+        <v>34.5</v>
+      </c>
+      <c r="K74">
+        <v>0.58043240073859914</v>
+      </c>
+      <c r="M74">
+        <v>34.5</v>
+      </c>
+      <c r="N74">
+        <v>1.7273226289761078E-18</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>2.9427274677438853E-8</v>
+      </c>
+      <c r="G75">
+        <v>35</v>
+      </c>
+      <c r="H75">
+        <v>2.5745100341965958E-18</v>
+      </c>
+      <c r="J75">
+        <v>35</v>
+      </c>
+      <c r="K75">
+        <v>0.52099895015441944</v>
+      </c>
+      <c r="M75">
+        <v>35</v>
+      </c>
+      <c r="N75">
+        <v>2.3374101716790501E-18</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>35.5</v>
+      </c>
+      <c r="E76">
+        <v>2.0800024319522436E-8</v>
+      </c>
+      <c r="G76">
+        <v>35.5</v>
+      </c>
+      <c r="H76">
+        <v>2.2065563123683174E-18</v>
+      </c>
+      <c r="J76">
+        <v>35.5</v>
+      </c>
+      <c r="K76">
+        <v>0.46799288697684199</v>
+      </c>
+      <c r="M76">
+        <v>35.5</v>
+      </c>
+      <c r="N76">
+        <v>2.9474977143819628E-18</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>1.4702228455781002E-8</v>
+      </c>
+      <c r="G77">
+        <v>36</v>
+      </c>
+      <c r="H77">
+        <v>1.8386025905400243E-18</v>
+      </c>
+      <c r="J77">
+        <v>36</v>
+      </c>
+      <c r="K77">
+        <v>0.42001911146583193</v>
+      </c>
+      <c r="M77">
+        <v>36</v>
+      </c>
+      <c r="N77">
+        <v>3.5575852570849348E-18</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>36.5</v>
+      </c>
+      <c r="E78">
+        <v>1.0392222992431869E-8</v>
+      </c>
+      <c r="G78">
+        <v>36.5</v>
+      </c>
+      <c r="H78">
+        <v>1.4706488687117352E-18</v>
+      </c>
+      <c r="J78">
+        <v>36.5</v>
+      </c>
+      <c r="K78">
+        <v>0.37734030882215314</v>
+      </c>
+      <c r="M78">
+        <v>36.5</v>
+      </c>
+      <c r="N78">
+        <v>4.1676727997878471E-18</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>7.345818015728123E-9</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
+      </c>
+      <c r="H79">
+        <v>1.1026951468834479E-18</v>
+      </c>
+      <c r="J79">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>0.33861314543198229</v>
+      </c>
+      <c r="M79">
+        <v>37</v>
+      </c>
+      <c r="N79">
+        <v>4.7777603424907594E-18</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>37.5</v>
+      </c>
+      <c r="E80">
+        <v>5.1920098550318241E-9</v>
+      </c>
+      <c r="G80">
+        <v>37.5</v>
+      </c>
+      <c r="H80">
+        <v>7.3474142505514714E-19</v>
+      </c>
+      <c r="J80">
+        <v>37.5</v>
+      </c>
+      <c r="K80">
+        <v>0.30421037794813688</v>
+      </c>
+      <c r="M80">
+        <v>37.5</v>
+      </c>
+      <c r="N80">
+        <v>5.3878478851937017E-18</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>3.669551066789193E-9</v>
+      </c>
+      <c r="G81">
+        <v>38</v>
+      </c>
+      <c r="H81">
+        <v>4.0298703057209661E-19</v>
+      </c>
+      <c r="J81">
+        <v>38</v>
+      </c>
+      <c r="K81">
+        <v>0.27298662893002845</v>
+      </c>
+      <c r="M81">
+        <v>38</v>
+      </c>
+      <c r="N81">
+        <v>5.0750287806663019E-18</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>38.5</v>
+      </c>
+      <c r="E82">
+        <v>2.5935261570488207E-9</v>
+      </c>
+      <c r="G82">
+        <v>38.5</v>
+      </c>
+      <c r="H82">
+        <v>2.9185421519825207E-19</v>
+      </c>
+      <c r="J82">
+        <v>38.5</v>
+      </c>
+      <c r="K82">
+        <v>0.24524124188733273</v>
+      </c>
+      <c r="M82">
+        <v>38.5</v>
+      </c>
+      <c r="N82">
+        <v>4.7218697248437327E-18</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>39</v>
+      </c>
+      <c r="E83">
+        <v>1.8330272004718887E-9</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83">
+        <v>1.80721399824412E-19</v>
+      </c>
+      <c r="J83">
+        <v>39</v>
+      </c>
+      <c r="K83">
+        <v>0.22008071657731548</v>
+      </c>
+      <c r="M83">
+        <v>39</v>
+      </c>
+      <c r="N83">
+        <v>4.3687106690211781E-18</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>39.5</v>
+      </c>
+      <c r="E84">
+        <v>1.2955318286006121E-9</v>
+      </c>
+      <c r="G84">
+        <v>39.5</v>
+      </c>
+      <c r="H84">
+        <v>6.9588584450570173E-20</v>
+      </c>
+      <c r="J84">
+        <v>39.5</v>
+      </c>
+      <c r="K84">
+        <v>0.19770290564985338</v>
+      </c>
+      <c r="M84">
+        <v>39.5</v>
+      </c>
+      <c r="N84">
+        <v>4.0155516131986235E-18</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>9.1564787894424871E-10</v>
+      </c>
+      <c r="G85">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>-4.1544230923270786E-20</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>0.17742953833521785</v>
+      </c>
+      <c r="M85">
+        <v>40</v>
+      </c>
+      <c r="N85">
+        <v>3.6623925573760689E-18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
